--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/ALASKA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/ALASKA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C16">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C21">
@@ -677,7 +677,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C22">
@@ -941,7 +941,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C40">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C46">
@@ -1125,41 +1125,6 @@
       </c>
       <c r="D52">
         <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/ALASKA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/ALASKA_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -890,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -921,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -952,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -983,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1014,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1045,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1076,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1089,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -1102,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
